--- a/OpenData/AED/Numazu(AED).xlsx
+++ b/OpenData/AED/Numazu(AED).xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichikawa8\Documents\GitHub\Code4Numazu\OpenData\AED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="8865"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="シート1" sheetId="1" r:id="rId3"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="605">
   <si>
     <t>施 設 名</t>
   </si>
@@ -275,8 +283,7 @@
   </si>
   <si>
     <t>1F正面玄関横
-3F医務室内
-</t>
+3F医務室内</t>
   </si>
   <si>
     <t>水道部庁舎</t>
@@ -394,8 +401,7 @@
   </si>
   <si>
     <t>職員室前廊下の柱
-体育館内の壁
-</t>
+体育館内の壁</t>
   </si>
   <si>
     <t>第五中学校</t>
@@ -557,8 +563,7 @@
   </si>
   <si>
     <t>保健室前の廊下の壁
-体育館内入口の壁
-</t>
+体育館内入口の壁</t>
   </si>
   <si>
     <t>門池地区センター</t>
@@ -971,9 +976,6 @@
     <t>http://www.city.numazu.shizuoka.jp/kurashi/anshin/aed/station.pdf</t>
   </si>
   <si>
-    <t>18:30～17:00</t>
-  </si>
-  <si>
     <t>特別養護老人ホーム 炉暖の郷</t>
   </si>
   <si>
@@ -1358,9 +1360,6 @@
     <t>ミルキーウェイ</t>
   </si>
   <si>
-    <t>我入道蔓蛇ヶ原509-2</t>
-  </si>
-  <si>
     <t>(株)東部自動車学校</t>
   </si>
   <si>
@@ -1724,15 +1723,9 @@
     <t>保安所</t>
   </si>
   <si>
-    <t>11:00～23:00</t>
-  </si>
-  <si>
     <t>小百合保育園</t>
   </si>
   <si>
-    <t>本郷町6-6</t>
-  </si>
-  <si>
     <t>馬淵建設(株) 中部支店</t>
   </si>
   <si>
@@ -1833,39 +1826,179 @@
   </si>
   <si>
     <t>米山町6-5 沼津商工会議所会館２階</t>
+  </si>
+  <si>
+    <r>
+      <t>8:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>17:00</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>店内</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>我入道蔓陀ヶ原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>509-2</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>1:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>23:00</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>本郷町</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6-6</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>新宿町</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11-8</t>
+    </r>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1873,7 +2006,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1888,6 +2021,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1902,6 +2036,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1914,6 +2049,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1926,6 +2062,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1936,114 +2073,370 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J214"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.86"/>
-    <col customWidth="1" min="2" max="2" width="10.14"/>
-    <col customWidth="1" min="3" max="3" width="7.86"/>
-    <col customWidth="1" min="4" max="4" width="38.57"/>
-    <col customWidth="1" min="5" max="5" width="52.57"/>
-    <col customWidth="1" min="6" max="6" width="55.43"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" customWidth="1"/>
+    <col min="6" max="6" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -2095,7 +2488,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -2118,7 +2511,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2141,7 +2534,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2557,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2187,7 +2580,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -2210,7 +2603,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
@@ -2233,7 +2626,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
@@ -2256,7 +2649,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -2279,7 +2672,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
@@ -2304,7 +2697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
@@ -2327,7 +2720,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2350,7 +2743,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>47</v>
       </c>
@@ -2373,7 +2766,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
@@ -2396,7 +2789,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>53</v>
       </c>
@@ -2419,7 +2812,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>56</v>
       </c>
@@ -2442,7 +2835,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>57</v>
       </c>
@@ -2465,7 +2858,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>59</v>
       </c>
@@ -2490,7 +2883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="17" t="s">
         <v>61</v>
       </c>
@@ -2513,7 +2906,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="17" t="s">
         <v>64</v>
       </c>
@@ -2536,7 +2929,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>67</v>
       </c>
@@ -2559,7 +2952,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>70</v>
       </c>
@@ -2582,7 +2975,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>73</v>
       </c>
@@ -2605,7 +2998,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="20" t="s">
         <v>76</v>
       </c>
@@ -2628,7 +3021,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="14.25">
       <c r="A27" s="20" t="s">
         <v>79</v>
       </c>
@@ -2651,7 +3044,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="20" t="s">
         <v>82</v>
       </c>
@@ -2674,7 +3067,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="20" t="s">
         <v>84</v>
       </c>
@@ -2697,7 +3090,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="14.25">
       <c r="A30" s="20" t="s">
         <v>87</v>
       </c>
@@ -2720,7 +3113,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="14.25">
       <c r="A31" s="20" t="s">
         <v>90</v>
       </c>
@@ -2743,7 +3136,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="20" t="s">
         <v>93</v>
       </c>
@@ -2766,7 +3159,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" ht="14.25">
       <c r="A33" s="20" t="s">
         <v>95</v>
       </c>
@@ -2789,7 +3182,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" ht="14.25">
       <c r="A34" s="20" t="s">
         <v>97</v>
       </c>
@@ -2812,7 +3205,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" ht="14.25">
       <c r="A35" s="20" t="s">
         <v>98</v>
       </c>
@@ -2835,7 +3228,7 @@
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" ht="14.25">
       <c r="A36" s="20" t="s">
         <v>100</v>
       </c>
@@ -2858,7 +3251,7 @@
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" ht="14.25">
       <c r="A37" s="18" t="s">
         <v>102</v>
       </c>
@@ -2881,7 +3274,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" ht="14.25">
       <c r="A38" s="20" t="s">
         <v>104</v>
       </c>
@@ -2904,7 +3297,7 @@
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" ht="14.25">
       <c r="A39" s="20" t="s">
         <v>107</v>
       </c>
@@ -2927,7 +3320,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" ht="14.25">
       <c r="A40" s="20" t="s">
         <v>110</v>
       </c>
@@ -2950,7 +3343,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" ht="14.25">
       <c r="A41" s="20" t="s">
         <v>112</v>
       </c>
@@ -2973,7 +3366,7 @@
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" ht="14.25">
       <c r="A42" s="20" t="s">
         <v>115</v>
       </c>
@@ -2996,7 +3389,7 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" ht="14.25">
       <c r="A43" s="20" t="s">
         <v>118</v>
       </c>
@@ -3019,7 +3412,7 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" ht="14.25">
       <c r="A44" s="20" t="s">
         <v>121</v>
       </c>
@@ -3042,7 +3435,7 @@
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" ht="14.25">
       <c r="A45" s="20" t="s">
         <v>123</v>
       </c>
@@ -3065,7 +3458,7 @@
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" ht="14.25">
       <c r="A46" s="20" t="s">
         <v>126</v>
       </c>
@@ -3088,7 +3481,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" ht="14.25">
       <c r="A47" s="20" t="s">
         <v>129</v>
       </c>
@@ -3111,7 +3504,7 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" ht="14.25">
       <c r="A48" s="20" t="s">
         <v>132</v>
       </c>
@@ -3134,7 +3527,7 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" ht="14.25">
       <c r="A49" s="16" t="s">
         <v>134</v>
       </c>
@@ -3157,7 +3550,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" ht="14.25">
       <c r="A50" s="17" t="s">
         <v>137</v>
       </c>
@@ -3180,7 +3573,7 @@
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" ht="14.25">
       <c r="A51" s="17" t="s">
         <v>140</v>
       </c>
@@ -3203,7 +3596,7 @@
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" ht="14.25">
       <c r="A52" s="17" t="s">
         <v>142</v>
       </c>
@@ -3226,7 +3619,7 @@
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" ht="14.25">
       <c r="A53" s="17" t="s">
         <v>145</v>
       </c>
@@ -3249,7 +3642,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" ht="14.25">
       <c r="A54" s="17" t="s">
         <v>148</v>
       </c>
@@ -3272,7 +3665,7 @@
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" ht="14.25">
       <c r="A55" s="18" t="s">
         <v>151</v>
       </c>
@@ -3295,7 +3688,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" ht="14.25">
       <c r="A56" s="20" t="s">
         <v>154</v>
       </c>
@@ -3318,7 +3711,7 @@
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" ht="14.25">
       <c r="A57" s="20" t="s">
         <v>157</v>
       </c>
@@ -3341,7 +3734,7 @@
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" ht="14.25">
       <c r="A58" s="20" t="s">
         <v>160</v>
       </c>
@@ -3364,7 +3757,7 @@
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" ht="14.25">
       <c r="A59" s="20" t="s">
         <v>163</v>
       </c>
@@ -3387,7 +3780,7 @@
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" ht="14.25">
       <c r="A60" s="20" t="s">
         <v>166</v>
       </c>
@@ -3410,7 +3803,7 @@
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" ht="14.25">
       <c r="A61" s="20" t="s">
         <v>169</v>
       </c>
@@ -3433,7 +3826,7 @@
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" ht="14.25">
       <c r="A62" s="20" t="s">
         <v>171</v>
       </c>
@@ -3456,7 +3849,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" ht="14.25">
       <c r="A63" s="20" t="s">
         <v>174</v>
       </c>
@@ -3479,7 +3872,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" ht="14.25">
       <c r="A64" s="20" t="s">
         <v>176</v>
       </c>
@@ -3502,7 +3895,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" ht="14.25">
       <c r="A65" s="20" t="s">
         <v>179</v>
       </c>
@@ -3525,7 +3918,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" ht="14.25">
       <c r="A66" s="20" t="s">
         <v>181</v>
       </c>
@@ -3548,7 +3941,7 @@
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" ht="14.25">
       <c r="A67" s="16" t="s">
         <v>184</v>
       </c>
@@ -3571,7 +3964,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" ht="14.25">
       <c r="A68" s="17" t="s">
         <v>187</v>
       </c>
@@ -3594,7 +3987,7 @@
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" ht="14.25">
       <c r="A69" s="17" t="s">
         <v>190</v>
       </c>
@@ -3617,7 +4010,7 @@
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" ht="14.25">
       <c r="A70" s="17" t="s">
         <v>192</v>
       </c>
@@ -3640,7 +4033,7 @@
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" ht="14.25">
       <c r="A71" s="17" t="s">
         <v>195</v>
       </c>
@@ -3663,7 +4056,7 @@
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" ht="14.25">
       <c r="A72" s="22" t="s">
         <v>197</v>
       </c>
@@ -3686,7 +4079,7 @@
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" ht="14.25">
       <c r="A73" s="23" t="s">
         <v>200</v>
       </c>
@@ -3709,7 +4102,7 @@
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" ht="14.25">
       <c r="A74" s="23" t="s">
         <v>203</v>
       </c>
@@ -3732,7 +4125,7 @@
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" ht="14.25">
       <c r="A75" s="23" t="s">
         <v>203</v>
       </c>
@@ -3755,7 +4148,7 @@
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" ht="14.25">
       <c r="A76" s="23" t="s">
         <v>203</v>
       </c>
@@ -3778,7 +4171,7 @@
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" ht="14.25">
       <c r="A77" s="23" t="s">
         <v>207</v>
       </c>
@@ -3801,7 +4194,7 @@
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" ht="14.25">
       <c r="A78" s="23" t="s">
         <v>210</v>
       </c>
@@ -3824,7 +4217,7 @@
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" ht="14.25">
       <c r="A79" s="23" t="s">
         <v>213</v>
       </c>
@@ -3847,7 +4240,7 @@
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" ht="14.25">
       <c r="A80" s="23" t="s">
         <v>216</v>
       </c>
@@ -3870,7 +4263,7 @@
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" ht="14.25">
       <c r="A81" s="22" t="s">
         <v>219</v>
       </c>
@@ -3881,10 +4274,10 @@
         <v>11</v>
       </c>
       <c r="D81" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>14</v>
@@ -3893,7 +4286,7 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" ht="14.25">
       <c r="A82" s="23" t="s">
         <v>221</v>
       </c>
@@ -3904,10 +4297,10 @@
         <v>11</v>
       </c>
       <c r="D82" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82" s="29" t="s">
         <v>222</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>14</v>
@@ -3916,7 +4309,7 @@
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" ht="14.25">
       <c r="A83" s="23" t="s">
         <v>224</v>
       </c>
@@ -3927,10 +4320,10 @@
         <v>11</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>52</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>14</v>
@@ -3939,7 +4332,7 @@
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" ht="14.25">
       <c r="A84" s="23" t="s">
         <v>225</v>
       </c>
@@ -3950,10 +4343,10 @@
         <v>11</v>
       </c>
       <c r="D84" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="29" t="s">
         <v>226</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>14</v>
@@ -3962,7 +4355,7 @@
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" ht="14.25">
       <c r="A85" s="16" t="s">
         <v>228</v>
       </c>
@@ -3985,7 +4378,7 @@
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" ht="14.25">
       <c r="A86" s="17" t="s">
         <v>231</v>
       </c>
@@ -4008,7 +4401,7 @@
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" ht="14.25">
       <c r="A87" s="17" t="s">
         <v>233</v>
       </c>
@@ -4031,7 +4424,7 @@
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" ht="14.25">
       <c r="A88" s="16" t="s">
         <v>236</v>
       </c>
@@ -4054,7 +4447,7 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" ht="14.25">
       <c r="A89" s="17" t="s">
         <v>239</v>
       </c>
@@ -4077,7 +4470,7 @@
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" ht="14.25">
       <c r="A90" s="17" t="s">
         <v>241</v>
       </c>
@@ -4100,7 +4493,7 @@
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" ht="14.25">
       <c r="A91" s="17" t="s">
         <v>243</v>
       </c>
@@ -4123,7 +4516,7 @@
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" ht="14.25">
       <c r="A92" s="17" t="s">
         <v>246</v>
       </c>
@@ -4146,7 +4539,7 @@
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" ht="14.25">
       <c r="A93" s="17" t="s">
         <v>248</v>
       </c>
@@ -4169,7 +4562,7 @@
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" ht="14.25">
       <c r="A94" s="16" t="s">
         <v>250</v>
       </c>
@@ -4192,7 +4585,7 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" ht="14.25">
       <c r="A95" s="17" t="s">
         <v>252</v>
       </c>
@@ -4215,7 +4608,7 @@
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" ht="14.25">
       <c r="A96" s="17" t="s">
         <v>255</v>
       </c>
@@ -4238,7 +4631,7 @@
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" ht="14.25">
       <c r="A97" s="16" t="s">
         <v>257</v>
       </c>
@@ -4261,7 +4654,7 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" ht="14.25">
       <c r="A98" s="17" t="s">
         <v>260</v>
       </c>
@@ -4284,7 +4677,7 @@
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" ht="14.25">
       <c r="A99" s="17" t="s">
         <v>262</v>
       </c>
@@ -4307,7 +4700,7 @@
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" ht="14.25">
       <c r="A100" s="17" t="s">
         <v>264</v>
       </c>
@@ -4330,7 +4723,7 @@
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" ht="14.25">
       <c r="A101" s="16" t="s">
         <v>267</v>
       </c>
@@ -4353,7 +4746,7 @@
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" ht="14.25">
       <c r="A102" s="17" t="s">
         <v>269</v>
       </c>
@@ -4378,7 +4771,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" ht="14.25">
       <c r="A103" s="17" t="s">
         <v>271</v>
       </c>
@@ -4403,7 +4796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" ht="14.25">
       <c r="A104" s="17" t="s">
         <v>274</v>
       </c>
@@ -4426,7 +4819,7 @@
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" ht="14.25">
       <c r="A105" s="17" t="s">
         <v>276</v>
       </c>
@@ -4449,7 +4842,7 @@
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" ht="14.25">
       <c r="A106" s="17" t="s">
         <v>279</v>
       </c>
@@ -4472,7 +4865,7 @@
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" ht="14.25">
       <c r="A107" s="16" t="s">
         <v>281</v>
       </c>
@@ -4495,7 +4888,7 @@
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" ht="14.25">
       <c r="A108" s="16" t="s">
         <v>283</v>
       </c>
@@ -4518,7 +4911,7 @@
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" ht="14.25">
       <c r="A109" s="17" t="s">
         <v>285</v>
       </c>
@@ -4541,7 +4934,7 @@
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" ht="14.25">
       <c r="A110" s="17" t="s">
         <v>288</v>
       </c>
@@ -4564,7 +4957,7 @@
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" ht="14.25">
       <c r="A111" s="17" t="s">
         <v>291</v>
       </c>
@@ -4587,7 +4980,7 @@
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" ht="14.25">
       <c r="A112" s="17" t="s">
         <v>294</v>
       </c>
@@ -4610,7 +5003,7 @@
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" ht="14.25">
       <c r="A113" s="17" t="s">
         <v>297</v>
       </c>
@@ -4635,7 +5028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" ht="14.25">
       <c r="A114" s="17" t="s">
         <v>299</v>
       </c>
@@ -4658,7 +5051,7 @@
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" ht="14.25">
       <c r="A115" s="17" t="s">
         <v>301</v>
       </c>
@@ -4681,7 +5074,7 @@
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" ht="14.25">
       <c r="A116" s="17" t="s">
         <v>304</v>
       </c>
@@ -4704,7 +5097,7 @@
       <c r="H116" s="11"/>
       <c r="I116" s="11"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" ht="14.25">
       <c r="A117" s="17" t="s">
         <v>307</v>
       </c>
@@ -4727,7 +5120,7 @@
       <c r="H117" s="11"/>
       <c r="I117" s="11"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" ht="14.25">
       <c r="A118" s="17" t="s">
         <v>309</v>
       </c>
@@ -4750,7 +5143,7 @@
       <c r="H118" s="11"/>
       <c r="I118" s="11"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" ht="14.25">
       <c r="A119" s="24" t="s">
         <v>311</v>
       </c>
@@ -4771,25 +5164,25 @@
       </c>
       <c r="G119" s="26"/>
       <c r="H119" s="26"/>
-      <c r="I119" s="24" t="s">
+      <c r="I119" s="30" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="14.25">
+      <c r="A120" s="24" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="24" t="s">
+      <c r="B120" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D120" s="24" t="s">
+      <c r="E120" s="24" t="s">
         <v>317</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>318</v>
       </c>
       <c r="F120" s="25" t="s">
         <v>314</v>
@@ -4800,21 +5193,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" ht="14.25">
       <c r="A121" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D121" s="24" t="s">
+      <c r="E121" s="24" t="s">
         <v>320</v>
-      </c>
-      <c r="E121" s="24" t="s">
-        <v>321</v>
       </c>
       <c r="F121" s="25" t="s">
         <v>314</v>
@@ -4822,24 +5215,24 @@
       <c r="G121" s="26"/>
       <c r="H121" s="26"/>
       <c r="I121" s="24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="14.25">
+      <c r="A122" s="24" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="24" t="s">
+      <c r="B122" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" s="24" t="s">
+      <c r="E122" s="24" t="s">
         <v>324</v>
-      </c>
-      <c r="E122" s="24" t="s">
-        <v>325</v>
       </c>
       <c r="F122" s="25" t="s">
         <v>314</v>
@@ -4847,24 +5240,24 @@
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
       <c r="I122" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="14.25">
+      <c r="A123" s="24" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="24" t="s">
+      <c r="B123" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="24" t="s">
+      <c r="E123" s="24" t="s">
         <v>328</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>329</v>
       </c>
       <c r="F123" s="25" t="s">
         <v>314</v>
@@ -4872,21 +5265,21 @@
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
       <c r="I123" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="14.25">
+      <c r="A124" s="24" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="24" t="s">
+      <c r="B124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="24" t="s">
         <v>331</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>332</v>
       </c>
       <c r="E124" s="24" t="s">
         <v>303</v>
@@ -4897,24 +5290,24 @@
       <c r="G124" s="26"/>
       <c r="H124" s="26"/>
       <c r="I124" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="14.25">
+      <c r="A125" s="24" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="24" t="s">
+      <c r="B125" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>335</v>
-      </c>
       <c r="E125" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F125" s="25" t="s">
         <v>314</v>
@@ -4922,24 +5315,24 @@
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
       <c r="I125" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="14.25">
+      <c r="A126" s="24" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="24" t="s">
+      <c r="B126" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" s="24" t="s">
+      <c r="E126" s="24" t="s">
         <v>338</v>
-      </c>
-      <c r="E126" s="24" t="s">
-        <v>339</v>
       </c>
       <c r="F126" s="25" t="s">
         <v>314</v>
@@ -4947,24 +5340,24 @@
       <c r="G126" s="26"/>
       <c r="H126" s="26"/>
       <c r="I126" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="14.25">
+      <c r="A127" s="24" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="24" t="s">
+      <c r="B127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="24" t="s">
+      <c r="E127" s="24" t="s">
         <v>342</v>
-      </c>
-      <c r="E127" s="24" t="s">
-        <v>343</v>
       </c>
       <c r="F127" s="25" t="s">
         <v>314</v>
@@ -4972,24 +5365,24 @@
       <c r="G127" s="26"/>
       <c r="H127" s="26"/>
       <c r="I127" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="14.25">
+      <c r="A128" s="24" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="24" t="s">
+      <c r="B128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="24" t="s">
+      <c r="E128" s="24" t="s">
         <v>346</v>
-      </c>
-      <c r="E128" s="24" t="s">
-        <v>347</v>
       </c>
       <c r="F128" s="25" t="s">
         <v>314</v>
@@ -4997,24 +5390,24 @@
       <c r="G128" s="26"/>
       <c r="H128" s="26"/>
       <c r="I128" s="24" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="14.25">
       <c r="A129" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D129" s="24" t="s">
+      <c r="E129" s="24" t="s">
         <v>349</v>
-      </c>
-      <c r="E129" s="24" t="s">
-        <v>350</v>
       </c>
       <c r="F129" s="25" t="s">
         <v>314</v>
@@ -5022,24 +5415,24 @@
       <c r="G129" s="26"/>
       <c r="H129" s="26"/>
       <c r="I129" s="24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="14.25">
+      <c r="A130" s="24" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="24" t="s">
+      <c r="B130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="B130" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D130" s="24" t="s">
+      <c r="E130" s="24" t="s">
         <v>353</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>354</v>
       </c>
       <c r="F130" s="25" t="s">
         <v>314</v>
@@ -5047,24 +5440,24 @@
       <c r="G130" s="26"/>
       <c r="H130" s="26"/>
       <c r="I130" s="24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="14.25">
+      <c r="A131" s="24" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="24" t="s">
+      <c r="B131" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="24" t="s">
+      <c r="E131" s="24" t="s">
         <v>357</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>358</v>
       </c>
       <c r="F131" s="25" t="s">
         <v>314</v>
@@ -5075,21 +5468,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:9" ht="14.25">
       <c r="A132" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D132" s="24" t="s">
+      <c r="E132" s="24" t="s">
         <v>360</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>361</v>
       </c>
       <c r="F132" s="25" t="s">
         <v>314</v>
@@ -5097,24 +5490,24 @@
       <c r="G132" s="26"/>
       <c r="H132" s="26"/>
       <c r="I132" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="14.25">
+      <c r="A133" s="24" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="24" t="s">
+      <c r="B133" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D133" s="24" t="s">
+      <c r="E133" s="24" t="s">
         <v>364</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>365</v>
       </c>
       <c r="F133" s="25" t="s">
         <v>314</v>
@@ -5122,24 +5515,24 @@
       <c r="G133" s="26"/>
       <c r="H133" s="26"/>
       <c r="I133" s="24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="14.25">
+      <c r="A134" s="24" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="24" t="s">
+      <c r="B134" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="24" t="s">
+      <c r="E134" s="24" t="s">
         <v>368</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>369</v>
       </c>
       <c r="F134" s="25" t="s">
         <v>314</v>
@@ -5147,24 +5540,24 @@
       <c r="G134" s="26"/>
       <c r="H134" s="26"/>
       <c r="I134" s="24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="14.25">
+      <c r="A135" s="24" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="24" t="s">
+      <c r="B135" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D135" s="24" t="s">
+      <c r="E135" s="24" t="s">
         <v>372</v>
-      </c>
-      <c r="E135" s="24" t="s">
-        <v>373</v>
       </c>
       <c r="F135" s="25" t="s">
         <v>314</v>
@@ -5172,24 +5565,24 @@
       <c r="G135" s="26"/>
       <c r="H135" s="26"/>
       <c r="I135" s="24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="14.25">
+      <c r="A136" s="24" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="24" t="s">
+      <c r="B136" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D136" s="24" t="s">
-        <v>376</v>
-      </c>
       <c r="E136" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F136" s="25" t="s">
         <v>314</v>
@@ -5197,24 +5590,24 @@
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
       <c r="I136" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="14.25">
+      <c r="A137" s="24" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="24" t="s">
+      <c r="B137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="24" t="s">
+      <c r="E137" s="24" t="s">
         <v>379</v>
-      </c>
-      <c r="E137" s="24" t="s">
-        <v>380</v>
       </c>
       <c r="F137" s="25" t="s">
         <v>314</v>
@@ -5222,24 +5615,24 @@
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
       <c r="I137" s="24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="14.25">
       <c r="A138" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="24" t="s">
-        <v>379</v>
-      </c>
       <c r="E138" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F138" s="25" t="s">
         <v>314</v>
@@ -5247,24 +5640,24 @@
       <c r="G138" s="26"/>
       <c r="H138" s="26"/>
       <c r="I138" s="24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="14.25">
       <c r="A139" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="24" t="s">
+      <c r="E139" s="24" t="s">
         <v>383</v>
-      </c>
-      <c r="E139" s="24" t="s">
-        <v>384</v>
       </c>
       <c r="F139" s="25" t="s">
         <v>314</v>
@@ -5275,21 +5668,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:9" ht="14.25">
       <c r="A140" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D140" s="24" t="s">
+      <c r="E140" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>387</v>
       </c>
       <c r="F140" s="25" t="s">
         <v>314</v>
@@ -5300,21 +5693,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:9" ht="14.25">
       <c r="A141" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D141" s="24" t="s">
+      <c r="E141" s="24" t="s">
         <v>389</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>390</v>
       </c>
       <c r="F141" s="25" t="s">
         <v>314</v>
@@ -5325,21 +5718,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:9" ht="14.25">
       <c r="A142" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" s="24" t="s">
+      <c r="E142" s="24" t="s">
         <v>392</v>
-      </c>
-      <c r="E142" s="24" t="s">
-        <v>393</v>
       </c>
       <c r="F142" s="25" t="s">
         <v>314</v>
@@ -5347,24 +5740,24 @@
       <c r="G142" s="26"/>
       <c r="H142" s="26"/>
       <c r="I142" s="24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="14.25">
+      <c r="A143" s="24" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="24" t="s">
+      <c r="B143" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="24" t="s">
+      <c r="E143" s="24" t="s">
         <v>396</v>
-      </c>
-      <c r="E143" s="24" t="s">
-        <v>397</v>
       </c>
       <c r="F143" s="25" t="s">
         <v>314</v>
@@ -5372,24 +5765,24 @@
       <c r="G143" s="26"/>
       <c r="H143" s="26"/>
       <c r="I143" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="14.25">
+      <c r="A144" s="24" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="24" t="s">
+      <c r="B144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" s="24" t="s">
+      <c r="E144" s="24" t="s">
         <v>400</v>
-      </c>
-      <c r="E144" s="24" t="s">
-        <v>401</v>
       </c>
       <c r="F144" s="25" t="s">
         <v>314</v>
@@ -5397,24 +5790,24 @@
       <c r="G144" s="26"/>
       <c r="H144" s="26"/>
       <c r="I144" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="14.25">
+      <c r="A145" s="24" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="24" t="s">
+      <c r="B145" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>401</v>
+      <c r="E145" s="31" t="s">
+        <v>600</v>
       </c>
       <c r="F145" s="25" t="s">
         <v>314</v>
@@ -5422,24 +5815,24 @@
       <c r="G145" s="26"/>
       <c r="H145" s="26"/>
       <c r="I145" s="24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="14.25">
+      <c r="A146" s="24" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="24" t="s">
+      <c r="B146" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D146" s="24" t="s">
+      <c r="E146" s="24" t="s">
         <v>407</v>
-      </c>
-      <c r="E146" s="24" t="s">
-        <v>408</v>
       </c>
       <c r="F146" s="25" t="s">
         <v>314</v>
@@ -5450,21 +5843,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:9" ht="14.25">
       <c r="A147" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="B147" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="24" t="s">
+      <c r="E147" s="24" t="s">
         <v>410</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>411</v>
       </c>
       <c r="F147" s="25" t="s">
         <v>314</v>
@@ -5472,24 +5865,24 @@
       <c r="G147" s="26"/>
       <c r="H147" s="26"/>
       <c r="I147" s="24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="14.25">
       <c r="A148" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D148" s="24" t="s">
+      <c r="E148" s="24" t="s">
         <v>413</v>
-      </c>
-      <c r="E148" s="24" t="s">
-        <v>414</v>
       </c>
       <c r="F148" s="25" t="s">
         <v>314</v>
@@ -5497,24 +5890,24 @@
       <c r="G148" s="26"/>
       <c r="H148" s="26"/>
       <c r="I148" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="14.25">
+      <c r="A149" s="24" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="24" t="s">
+      <c r="B149" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D149" s="24" t="s">
+      <c r="E149" s="24" t="s">
         <v>417</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>418</v>
       </c>
       <c r="F149" s="25" t="s">
         <v>314</v>
@@ -5522,24 +5915,24 @@
       <c r="G149" s="26"/>
       <c r="H149" s="26"/>
       <c r="I149" s="24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="14.25">
+      <c r="A150" s="24" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="24" t="s">
+      <c r="B150" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D150" s="24" t="s">
+      <c r="E150" s="24" t="s">
         <v>421</v>
-      </c>
-      <c r="E150" s="24" t="s">
-        <v>422</v>
       </c>
       <c r="F150" s="25" t="s">
         <v>314</v>
@@ -5550,21 +5943,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:9" ht="14.25">
       <c r="A151" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" s="24" t="s">
+      <c r="E151" s="24" t="s">
         <v>424</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>425</v>
       </c>
       <c r="F151" s="25" t="s">
         <v>314</v>
@@ -5572,24 +5965,24 @@
       <c r="G151" s="26"/>
       <c r="H151" s="26"/>
       <c r="I151" s="24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="14.25">
+      <c r="A152" s="24" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="24" t="s">
+      <c r="B152" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D152" s="24" t="s">
-        <v>428</v>
-      </c>
       <c r="E152" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F152" s="25" t="s">
         <v>314</v>
@@ -5600,21 +5993,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:9" ht="14.25">
       <c r="A153" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="24" t="s">
+      <c r="E153" s="24" t="s">
         <v>430</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>431</v>
       </c>
       <c r="F153" s="25" t="s">
         <v>314</v>
@@ -5622,24 +6015,24 @@
       <c r="G153" s="26"/>
       <c r="H153" s="26"/>
       <c r="I153" s="24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="14.25">
+      <c r="A154" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="E154" s="24" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D154" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="E154" s="24" t="s">
-        <v>433</v>
       </c>
       <c r="F154" s="25" t="s">
         <v>314</v>
@@ -5647,24 +6040,24 @@
       <c r="G154" s="26"/>
       <c r="H154" s="26"/>
       <c r="I154" s="24" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="14.25">
       <c r="A155" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D155" s="24" t="s">
+      <c r="E155" s="24" t="s">
         <v>435</v>
-      </c>
-      <c r="E155" s="24" t="s">
-        <v>436</v>
       </c>
       <c r="F155" s="25" t="s">
         <v>314</v>
@@ -5672,24 +6065,24 @@
       <c r="G155" s="26"/>
       <c r="H155" s="26"/>
       <c r="I155" s="24" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="14.25">
       <c r="A156" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D156" s="24" t="s">
+      <c r="E156" s="24" t="s">
         <v>438</v>
-      </c>
-      <c r="E156" s="24" t="s">
-        <v>439</v>
       </c>
       <c r="F156" s="25" t="s">
         <v>314</v>
@@ -5700,21 +6093,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:9" ht="14.25">
       <c r="A157" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="B157" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D157" s="24" t="s">
-        <v>438</v>
-      </c>
       <c r="E157" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F157" s="25" t="s">
         <v>314</v>
@@ -5725,21 +6118,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:9" ht="14.25">
       <c r="A158" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D158" s="24" t="s">
-        <v>438</v>
-      </c>
       <c r="E158" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F158" s="25" t="s">
         <v>314</v>
@@ -5747,21 +6140,21 @@
       <c r="G158" s="26"/>
       <c r="H158" s="26"/>
       <c r="I158" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="14.25">
+      <c r="A159" s="24" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="24" t="s">
-        <v>443</v>
-      </c>
       <c r="B159" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D159" s="24" t="s">
-        <v>444</v>
+      <c r="D159" s="30" t="s">
+        <v>601</v>
       </c>
       <c r="E159" s="24" t="s">
         <v>36</v>
@@ -5772,24 +6165,24 @@
       <c r="G159" s="26"/>
       <c r="H159" s="26"/>
       <c r="I159" s="24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="14.25">
       <c r="A160" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D160" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="E160" s="24" t="s">
         <v>445</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D160" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="E160" s="24" t="s">
-        <v>447</v>
       </c>
       <c r="F160" s="25" t="s">
         <v>314</v>
@@ -5797,24 +6190,24 @@
       <c r="G160" s="26"/>
       <c r="H160" s="26"/>
       <c r="I160" s="24" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="14.25">
+      <c r="A161" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" s="24" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="24" t="s">
+      <c r="E161" s="24" t="s">
         <v>449</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D161" s="24" t="s">
-        <v>450</v>
-      </c>
-      <c r="E161" s="24" t="s">
-        <v>451</v>
       </c>
       <c r="F161" s="25" t="s">
         <v>314</v>
@@ -5822,24 +6215,24 @@
       <c r="G161" s="26"/>
       <c r="H161" s="26"/>
       <c r="I161" s="24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="14.25">
       <c r="A162" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="E162" s="24" t="s">
         <v>452</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="E162" s="24" t="s">
-        <v>454</v>
       </c>
       <c r="F162" s="25" t="s">
         <v>314</v>
@@ -5847,24 +6240,24 @@
       <c r="G162" s="26"/>
       <c r="H162" s="26"/>
       <c r="I162" s="24" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="14.25">
+      <c r="A163" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="24" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="24" t="s">
+      <c r="E163" s="24" t="s">
         <v>456</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="E163" s="24" t="s">
-        <v>458</v>
       </c>
       <c r="F163" s="25" t="s">
         <v>314</v>
@@ -5872,24 +6265,24 @@
       <c r="G163" s="26"/>
       <c r="H163" s="26"/>
       <c r="I163" s="24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="14.25">
+      <c r="A164" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="24" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="24" t="s">
+      <c r="E164" s="24" t="s">
         <v>460</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D164" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="E164" s="24" t="s">
-        <v>462</v>
       </c>
       <c r="F164" s="25" t="s">
         <v>314</v>
@@ -5897,24 +6290,24 @@
       <c r="G164" s="26"/>
       <c r="H164" s="26"/>
       <c r="I164" s="24" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="14.25">
       <c r="A165" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="E165" s="24" t="s">
         <v>463</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D165" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="E165" s="24" t="s">
-        <v>465</v>
       </c>
       <c r="F165" s="25" t="s">
         <v>314</v>
@@ -5922,24 +6315,24 @@
       <c r="G165" s="26"/>
       <c r="H165" s="26"/>
       <c r="I165" s="24" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="14.25">
+      <c r="A166" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="24" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="24" t="s">
+      <c r="E166" s="24" t="s">
         <v>467</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D166" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="E166" s="24" t="s">
-        <v>469</v>
       </c>
       <c r="F166" s="25" t="s">
         <v>314</v>
@@ -5950,9 +6343,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:10" ht="14.25">
       <c r="A167" s="24" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>10</v>
@@ -5961,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D167" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E167" s="24" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F167" s="25" t="s">
         <v>314</v>
@@ -5972,24 +6365,24 @@
       <c r="G167" s="26"/>
       <c r="H167" s="26"/>
       <c r="I167" s="24" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="14.25">
+      <c r="A168" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="24" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="24" t="s">
+      <c r="E168" s="24" t="s">
         <v>473</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D168" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E168" s="24" t="s">
-        <v>475</v>
       </c>
       <c r="F168" s="25" t="s">
         <v>314</v>
@@ -5997,12 +6390,12 @@
       <c r="G168" s="26"/>
       <c r="H168" s="26"/>
       <c r="I168" s="24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="14.25">
       <c r="A169" s="24" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>10</v>
@@ -6011,7 +6404,7 @@
         <v>11</v>
       </c>
       <c r="D169" s="24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E169" s="24" t="s">
         <v>278</v>
@@ -6022,12 +6415,12 @@
       <c r="G169" s="26"/>
       <c r="H169" s="26"/>
       <c r="I169" s="24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="14.25">
       <c r="A170" s="24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>10</v>
@@ -6035,11 +6428,11 @@
       <c r="C170" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="24" t="s">
-        <v>479</v>
+      <c r="D170" s="30" t="s">
+        <v>604</v>
       </c>
       <c r="E170" s="24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F170" s="25" t="s">
         <v>314</v>
@@ -6047,12 +6440,12 @@
       <c r="G170" s="26"/>
       <c r="H170" s="26"/>
       <c r="I170" s="24" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="14.25">
       <c r="A171" s="24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>10</v>
@@ -6061,7 +6454,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="24" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E171" s="24" t="s">
         <v>133</v>
@@ -6072,12 +6465,12 @@
       <c r="G171" s="26"/>
       <c r="H171" s="26"/>
       <c r="I171" s="24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="14.25">
       <c r="A172" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>10</v>
@@ -6086,10 +6479,10 @@
         <v>11</v>
       </c>
       <c r="D172" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E172" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F172" s="25" t="s">
         <v>314</v>
@@ -6097,25 +6490,25 @@
       <c r="G172" s="26"/>
       <c r="H172" s="26"/>
       <c r="I172" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J172" s="27"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:10" ht="14.25">
       <c r="A173" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="E173" s="24" t="s">
         <v>484</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="E173" s="24" t="s">
-        <v>486</v>
       </c>
       <c r="F173" s="25" t="s">
         <v>314</v>
@@ -6123,24 +6516,24 @@
       <c r="G173" s="26"/>
       <c r="H173" s="26"/>
       <c r="I173" s="24" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="14.25">
+      <c r="A174" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="24" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="24" t="s">
+      <c r="E174" s="24" t="s">
         <v>488</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D174" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="E174" s="24" t="s">
-        <v>490</v>
       </c>
       <c r="F174" s="25" t="s">
         <v>314</v>
@@ -6148,24 +6541,24 @@
       <c r="G174" s="26"/>
       <c r="H174" s="26"/>
       <c r="I174" s="24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="14.25">
+      <c r="A175" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="24" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="24" t="s">
+      <c r="E175" s="24" t="s">
         <v>492</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="E175" s="24" t="s">
-        <v>494</v>
       </c>
       <c r="F175" s="25" t="s">
         <v>314</v>
@@ -6176,21 +6569,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:10" ht="14.25">
       <c r="A176" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E176" s="24" t="s">
         <v>495</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="E176" s="24" t="s">
-        <v>497</v>
       </c>
       <c r="F176" s="25" t="s">
         <v>314</v>
@@ -6198,24 +6591,24 @@
       <c r="G176" s="26"/>
       <c r="H176" s="26"/>
       <c r="I176" s="24" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="14.25">
       <c r="A177" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E177" s="24" t="s">
         <v>498</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="E177" s="24" t="s">
-        <v>500</v>
       </c>
       <c r="F177" s="25" t="s">
         <v>314</v>
@@ -6223,24 +6616,24 @@
       <c r="G177" s="26"/>
       <c r="H177" s="26"/>
       <c r="I177" s="24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="14.25">
+      <c r="A178" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="24" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="24" t="s">
+      <c r="E178" s="24" t="s">
         <v>502</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D178" s="24" t="s">
-        <v>503</v>
-      </c>
-      <c r="E178" s="24" t="s">
-        <v>504</v>
       </c>
       <c r="F178" s="25" t="s">
         <v>314</v>
@@ -6248,12 +6641,12 @@
       <c r="G178" s="26"/>
       <c r="H178" s="26"/>
       <c r="I178" s="24" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="14.25">
       <c r="A179" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>10</v>
@@ -6262,7 +6655,7 @@
         <v>11</v>
       </c>
       <c r="D179" s="24" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E179" s="24" t="s">
         <v>63</v>
@@ -6273,12 +6666,12 @@
       <c r="G179" s="26"/>
       <c r="H179" s="26"/>
       <c r="I179" s="24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="14.25">
       <c r="A180" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>10</v>
@@ -6287,7 +6680,7 @@
         <v>11</v>
       </c>
       <c r="D180" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E180" s="24" t="s">
         <v>36</v>
@@ -6298,24 +6691,24 @@
       <c r="G180" s="26"/>
       <c r="H180" s="26"/>
       <c r="I180" s="24" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="14.25">
       <c r="A181" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="E181" s="24" t="s">
         <v>509</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D181" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="E181" s="24" t="s">
-        <v>511</v>
       </c>
       <c r="F181" s="25" t="s">
         <v>314</v>
@@ -6323,24 +6716,24 @@
       <c r="G181" s="26"/>
       <c r="H181" s="26"/>
       <c r="I181" s="24" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="14.25">
+      <c r="A182" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="24" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="24" t="s">
+      <c r="E182" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D182" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="E182" s="24" t="s">
-        <v>515</v>
       </c>
       <c r="F182" s="25" t="s">
         <v>314</v>
@@ -6351,21 +6744,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:9" ht="14.25">
       <c r="A183" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D183" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E183" s="24" t="s">
         <v>516</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D183" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="E183" s="24" t="s">
-        <v>518</v>
       </c>
       <c r="F183" s="25" t="s">
         <v>314</v>
@@ -6373,12 +6766,12 @@
       <c r="G183" s="26"/>
       <c r="H183" s="26"/>
       <c r="I183" s="24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="14.25">
       <c r="A184" s="24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>10</v>
@@ -6387,10 +6780,10 @@
         <v>11</v>
       </c>
       <c r="D184" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E184" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F184" s="25" t="s">
         <v>314</v>
@@ -6398,24 +6791,24 @@
       <c r="G184" s="26"/>
       <c r="H184" s="26"/>
       <c r="I184" s="24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="14.25">
       <c r="A185" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="E185" s="24" t="s">
         <v>521</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D185" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="E185" s="24" t="s">
-        <v>523</v>
       </c>
       <c r="F185" s="25" t="s">
         <v>314</v>
@@ -6426,21 +6819,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:9" ht="14.25">
       <c r="A186" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="E186" s="24" t="s">
         <v>524</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="E186" s="24" t="s">
-        <v>526</v>
       </c>
       <c r="F186" s="25" t="s">
         <v>314</v>
@@ -6448,24 +6841,24 @@
       <c r="G186" s="26"/>
       <c r="H186" s="26"/>
       <c r="I186" s="24" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="14.25">
+      <c r="A187" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D187" s="24" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="24" t="s">
+      <c r="E187" s="24" t="s">
         <v>528</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="E187" s="24" t="s">
-        <v>530</v>
       </c>
       <c r="F187" s="25" t="s">
         <v>314</v>
@@ -6473,24 +6866,24 @@
       <c r="G187" s="26"/>
       <c r="H187" s="26"/>
       <c r="I187" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="14.25">
+      <c r="A188" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188" s="24" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="24" t="s">
+      <c r="E188" s="24" t="s">
         <v>532</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D188" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="E188" s="24" t="s">
-        <v>534</v>
       </c>
       <c r="F188" s="25" t="s">
         <v>314</v>
@@ -6498,24 +6891,24 @@
       <c r="G188" s="26"/>
       <c r="H188" s="26"/>
       <c r="I188" s="24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="14.25">
       <c r="A189" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="E189" s="24" t="s">
         <v>535</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D189" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>537</v>
       </c>
       <c r="F189" s="25" t="s">
         <v>314</v>
@@ -6523,12 +6916,12 @@
       <c r="G189" s="26"/>
       <c r="H189" s="26"/>
       <c r="I189" s="24" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="14.25">
       <c r="A190" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>10</v>
@@ -6537,10 +6930,10 @@
         <v>11</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E190" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F190" s="25" t="s">
         <v>314</v>
@@ -6548,12 +6941,12 @@
       <c r="G190" s="26"/>
       <c r="H190" s="26"/>
       <c r="I190" s="24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="14.25">
       <c r="A191" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>10</v>
@@ -6562,10 +6955,10 @@
         <v>11</v>
       </c>
       <c r="D191" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E191" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F191" s="25" t="s">
         <v>314</v>
@@ -6576,9 +6969,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:9" ht="14.25">
       <c r="A192" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>10</v>
@@ -6587,7 +6980,7 @@
         <v>11</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E192" s="24" t="s">
         <v>133</v>
@@ -6601,21 +6994,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:9" ht="14.25">
       <c r="A193" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="E193" s="24" t="s">
         <v>544</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D193" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="E193" s="24" t="s">
-        <v>546</v>
       </c>
       <c r="F193" s="25" t="s">
         <v>314</v>
@@ -6626,21 +7019,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:9" ht="14.25">
       <c r="A194" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="E194" s="24" t="s">
         <v>547</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="E194" s="24" t="s">
-        <v>549</v>
       </c>
       <c r="F194" s="25" t="s">
         <v>314</v>
@@ -6648,24 +7041,24 @@
       <c r="G194" s="26"/>
       <c r="H194" s="26"/>
       <c r="I194" s="24" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="14.25">
+      <c r="A195" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" s="24" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" s="24" t="s">
-        <v>552</v>
-      </c>
       <c r="E195" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F195" s="25" t="s">
         <v>314</v>
@@ -6673,24 +7066,24 @@
       <c r="G195" s="26"/>
       <c r="H195" s="26"/>
       <c r="I195" s="24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="14.25">
       <c r="A196" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D196" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="E196" s="24" t="s">
         <v>553</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="E196" s="24" t="s">
-        <v>555</v>
       </c>
       <c r="F196" s="25" t="s">
         <v>314</v>
@@ -6698,24 +7091,24 @@
       <c r="G196" s="26"/>
       <c r="H196" s="26"/>
       <c r="I196" s="24" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="14.25">
       <c r="A197" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="E197" s="24" t="s">
         <v>556</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" s="24" t="s">
-        <v>557</v>
-      </c>
-      <c r="E197" s="24" t="s">
-        <v>558</v>
       </c>
       <c r="F197" s="25" t="s">
         <v>314</v>
@@ -6726,21 +7119,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:9" ht="14.25">
       <c r="A198" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="E198" s="24" t="s">
         <v>559</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D198" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="E198" s="24" t="s">
-        <v>561</v>
       </c>
       <c r="F198" s="25" t="s">
         <v>314</v>
@@ -6748,46 +7141,46 @@
       <c r="G198" s="26"/>
       <c r="H198" s="26"/>
       <c r="I198" s="24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="14.25">
+      <c r="A199" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D199" s="24" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="24" t="s">
+      <c r="E199" s="24" t="s">
         <v>563</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D199" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="E199" s="24" t="s">
-        <v>565</v>
       </c>
       <c r="F199" s="25" t="s">
         <v>314</v>
       </c>
       <c r="G199" s="26"/>
       <c r="H199" s="26"/>
-      <c r="I199" s="24" t="s">
+      <c r="I199" s="30" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="14.25">
+      <c r="A200" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200" s="24" t="s">
         <v>566</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="24" t="s">
-        <v>567</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" s="24" t="s">
-        <v>568</v>
       </c>
       <c r="E200" s="24" t="s">
         <v>36</v>
@@ -6798,12 +7191,12 @@
       <c r="G200" s="26"/>
       <c r="H200" s="26"/>
       <c r="I200" s="24" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="14.25">
       <c r="A201" s="24" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>10</v>
@@ -6811,11 +7204,11 @@
       <c r="C201" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="24" t="s">
-        <v>570</v>
+      <c r="D201" s="30" t="s">
+        <v>603</v>
       </c>
       <c r="E201" s="24" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F201" s="25" t="s">
         <v>314</v>
@@ -6823,12 +7216,12 @@
       <c r="G201" s="26"/>
       <c r="H201" s="26"/>
       <c r="I201" s="24" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="14.25">
       <c r="A202" s="24" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>10</v>
@@ -6837,10 +7230,10 @@
         <v>11</v>
       </c>
       <c r="D202" s="24" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E202" s="24" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F202" s="25" t="s">
         <v>314</v>
@@ -6848,12 +7241,12 @@
       <c r="G202" s="26"/>
       <c r="H202" s="26"/>
       <c r="I202" s="24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="14.25">
       <c r="A203" s="24" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>10</v>
@@ -6862,7 +7255,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E203" s="24" t="s">
         <v>128</v>
@@ -6873,12 +7266,12 @@
       <c r="G203" s="26"/>
       <c r="H203" s="26"/>
       <c r="I203" s="24" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="14.25">
       <c r="A204" s="24" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>10</v>
@@ -6887,10 +7280,10 @@
         <v>11</v>
       </c>
       <c r="D204" s="24" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E204" s="24" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F204" s="25" t="s">
         <v>314</v>
@@ -6901,9 +7294,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:9" ht="14.25">
       <c r="A205" s="24" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>10</v>
@@ -6912,10 +7305,10 @@
         <v>11</v>
       </c>
       <c r="D205" s="24" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E205" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F205" s="25" t="s">
         <v>314</v>
@@ -6926,9 +7319,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:9" ht="14.25">
       <c r="A206" s="24" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>10</v>
@@ -6937,7 +7330,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="24" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E206" s="24" t="s">
         <v>75</v>
@@ -6948,12 +7341,12 @@
       <c r="G206" s="26"/>
       <c r="H206" s="26"/>
       <c r="I206" s="24" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="14.25">
       <c r="A207" s="24" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>10</v>
@@ -6962,10 +7355,10 @@
         <v>11</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E207" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F207" s="25" t="s">
         <v>314</v>
@@ -6973,12 +7366,12 @@
       <c r="G207" s="26"/>
       <c r="H207" s="26"/>
       <c r="I207" s="24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="14.25">
       <c r="A208" s="24" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>10</v>
@@ -6987,10 +7380,10 @@
         <v>11</v>
       </c>
       <c r="D208" s="24" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E208" s="24" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F208" s="25" t="s">
         <v>314</v>
@@ -6998,12 +7391,12 @@
       <c r="G208" s="26"/>
       <c r="H208" s="26"/>
       <c r="I208" s="24" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="14.25">
       <c r="A209" s="24" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>10</v>
@@ -7012,10 +7405,10 @@
         <v>11</v>
       </c>
       <c r="D209" s="24" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E209" s="24" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F209" s="25" t="s">
         <v>314</v>
@@ -7023,12 +7416,12 @@
       <c r="G209" s="26"/>
       <c r="H209" s="26"/>
       <c r="I209" s="24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="14.25">
       <c r="A210" s="24" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>10</v>
@@ -7037,10 +7430,10 @@
         <v>11</v>
       </c>
       <c r="D210" s="24" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E210" s="24" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F210" s="25" t="s">
         <v>314</v>
@@ -7048,12 +7441,12 @@
       <c r="G210" s="26"/>
       <c r="H210" s="26"/>
       <c r="I210" s="24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="14.25">
       <c r="A211" s="24" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B211" s="7" t="s">
         <v>10</v>
@@ -7062,7 +7455,7 @@
         <v>11</v>
       </c>
       <c r="D211" s="24" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E211" s="24" t="s">
         <v>75</v>
@@ -7073,12 +7466,12 @@
       <c r="G211" s="26"/>
       <c r="H211" s="26"/>
       <c r="I211" s="24" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="14.25">
       <c r="A212" s="24" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B212" s="7" t="s">
         <v>10</v>
@@ -7087,10 +7480,10 @@
         <v>11</v>
       </c>
       <c r="D212" s="24" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E212" s="24" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F212" s="25" t="s">
         <v>314</v>
@@ -7098,12 +7491,12 @@
       <c r="G212" s="26"/>
       <c r="H212" s="26"/>
       <c r="I212" s="24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="14.25">
       <c r="A213" s="24" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>10</v>
@@ -7112,10 +7505,10 @@
         <v>11</v>
       </c>
       <c r="D213" s="24" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E213" s="24" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F213" s="25" t="s">
         <v>314</v>
@@ -7123,12 +7516,12 @@
       <c r="G213" s="26"/>
       <c r="H213" s="26"/>
       <c r="I213" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="14.25">
       <c r="A214" s="24" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>10</v>
@@ -7137,7 +7530,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="24" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E214" s="24" t="s">
         <v>133</v>
@@ -7148,224 +7541,226 @@
       <c r="G214" s="26"/>
       <c r="H214" s="26"/>
       <c r="I214" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F3"/>
-    <hyperlink r:id="rId2" ref="F4"/>
-    <hyperlink r:id="rId3" ref="F5"/>
-    <hyperlink r:id="rId4" ref="F6"/>
-    <hyperlink r:id="rId5" ref="F7"/>
-    <hyperlink r:id="rId6" ref="F8"/>
-    <hyperlink r:id="rId7" ref="F9"/>
-    <hyperlink r:id="rId8" ref="F10"/>
-    <hyperlink r:id="rId9" ref="F11"/>
-    <hyperlink r:id="rId10" ref="F12"/>
-    <hyperlink r:id="rId11" ref="F13"/>
-    <hyperlink r:id="rId12" ref="F14"/>
-    <hyperlink r:id="rId13" ref="F15"/>
-    <hyperlink r:id="rId14" ref="F16"/>
-    <hyperlink r:id="rId15" ref="F17"/>
-    <hyperlink r:id="rId16" ref="F18"/>
-    <hyperlink r:id="rId17" ref="F19"/>
-    <hyperlink r:id="rId18" ref="F20"/>
-    <hyperlink r:id="rId19" ref="F21"/>
-    <hyperlink r:id="rId20" ref="F22"/>
-    <hyperlink r:id="rId21" ref="F23"/>
-    <hyperlink r:id="rId22" ref="F24"/>
-    <hyperlink r:id="rId23" ref="F25"/>
-    <hyperlink r:id="rId24" ref="F26"/>
-    <hyperlink r:id="rId25" ref="F27"/>
-    <hyperlink r:id="rId26" ref="F28"/>
-    <hyperlink r:id="rId27" ref="F29"/>
-    <hyperlink r:id="rId28" ref="F30"/>
-    <hyperlink r:id="rId29" ref="F31"/>
-    <hyperlink r:id="rId30" ref="F32"/>
-    <hyperlink r:id="rId31" ref="F33"/>
-    <hyperlink r:id="rId32" ref="F34"/>
-    <hyperlink r:id="rId33" ref="F35"/>
-    <hyperlink r:id="rId34" ref="F36"/>
-    <hyperlink r:id="rId35" ref="F37"/>
-    <hyperlink r:id="rId36" ref="F38"/>
-    <hyperlink r:id="rId37" ref="F39"/>
-    <hyperlink r:id="rId38" ref="F40"/>
-    <hyperlink r:id="rId39" ref="F41"/>
-    <hyperlink r:id="rId40" ref="F42"/>
-    <hyperlink r:id="rId41" ref="F43"/>
-    <hyperlink r:id="rId42" ref="F44"/>
-    <hyperlink r:id="rId43" ref="F45"/>
-    <hyperlink r:id="rId44" ref="F46"/>
-    <hyperlink r:id="rId45" ref="F47"/>
-    <hyperlink r:id="rId46" ref="F48"/>
-    <hyperlink r:id="rId47" ref="F49"/>
-    <hyperlink r:id="rId48" ref="F50"/>
-    <hyperlink r:id="rId49" ref="F51"/>
-    <hyperlink r:id="rId50" ref="F52"/>
-    <hyperlink r:id="rId51" ref="F53"/>
-    <hyperlink r:id="rId52" ref="F54"/>
-    <hyperlink r:id="rId53" ref="F55"/>
-    <hyperlink r:id="rId54" ref="F56"/>
-    <hyperlink r:id="rId55" ref="F57"/>
-    <hyperlink r:id="rId56" ref="F58"/>
-    <hyperlink r:id="rId57" ref="F59"/>
-    <hyperlink r:id="rId58" ref="F60"/>
-    <hyperlink r:id="rId59" ref="F61"/>
-    <hyperlink r:id="rId60" ref="F62"/>
-    <hyperlink r:id="rId61" ref="F63"/>
-    <hyperlink r:id="rId62" ref="F64"/>
-    <hyperlink r:id="rId63" ref="F65"/>
-    <hyperlink r:id="rId64" ref="F66"/>
-    <hyperlink r:id="rId65" ref="F67"/>
-    <hyperlink r:id="rId66" ref="F68"/>
-    <hyperlink r:id="rId67" ref="F69"/>
-    <hyperlink r:id="rId68" ref="F70"/>
-    <hyperlink r:id="rId69" ref="F71"/>
-    <hyperlink r:id="rId70" ref="F72"/>
-    <hyperlink r:id="rId71" ref="F73"/>
-    <hyperlink r:id="rId72" ref="F74"/>
-    <hyperlink r:id="rId73" ref="F75"/>
-    <hyperlink r:id="rId74" ref="F76"/>
-    <hyperlink r:id="rId75" ref="F77"/>
-    <hyperlink r:id="rId76" ref="F78"/>
-    <hyperlink r:id="rId77" ref="F79"/>
-    <hyperlink r:id="rId78" ref="F80"/>
-    <hyperlink r:id="rId79" ref="F81"/>
-    <hyperlink r:id="rId80" ref="F82"/>
-    <hyperlink r:id="rId81" ref="F83"/>
-    <hyperlink r:id="rId82" ref="F84"/>
-    <hyperlink r:id="rId83" ref="F85"/>
-    <hyperlink r:id="rId84" ref="F86"/>
-    <hyperlink r:id="rId85" ref="F87"/>
-    <hyperlink r:id="rId86" ref="F88"/>
-    <hyperlink r:id="rId87" ref="F89"/>
-    <hyperlink r:id="rId88" ref="F90"/>
-    <hyperlink r:id="rId89" ref="F91"/>
-    <hyperlink r:id="rId90" ref="F92"/>
-    <hyperlink r:id="rId91" ref="F93"/>
-    <hyperlink r:id="rId92" ref="F94"/>
-    <hyperlink r:id="rId93" ref="F95"/>
-    <hyperlink r:id="rId94" ref="F96"/>
-    <hyperlink r:id="rId95" ref="F97"/>
-    <hyperlink r:id="rId96" ref="F98"/>
-    <hyperlink r:id="rId97" ref="F99"/>
-    <hyperlink r:id="rId98" ref="F100"/>
-    <hyperlink r:id="rId99" ref="F101"/>
-    <hyperlink r:id="rId100" ref="F102"/>
-    <hyperlink r:id="rId101" ref="F103"/>
-    <hyperlink r:id="rId102" ref="F104"/>
-    <hyperlink r:id="rId103" ref="F105"/>
-    <hyperlink r:id="rId104" ref="F106"/>
-    <hyperlink r:id="rId105" ref="F107"/>
-    <hyperlink r:id="rId106" ref="F108"/>
-    <hyperlink r:id="rId107" ref="F109"/>
-    <hyperlink r:id="rId108" ref="F110"/>
-    <hyperlink r:id="rId109" ref="F111"/>
-    <hyperlink r:id="rId110" ref="F112"/>
-    <hyperlink r:id="rId111" ref="F113"/>
-    <hyperlink r:id="rId112" ref="F114"/>
-    <hyperlink r:id="rId113" ref="F115"/>
-    <hyperlink r:id="rId114" ref="F116"/>
-    <hyperlink r:id="rId115" ref="F117"/>
-    <hyperlink r:id="rId116" ref="F118"/>
-    <hyperlink r:id="rId117" ref="F119"/>
-    <hyperlink r:id="rId118" ref="F120"/>
-    <hyperlink r:id="rId119" ref="F121"/>
-    <hyperlink r:id="rId120" ref="F122"/>
-    <hyperlink r:id="rId121" ref="F123"/>
-    <hyperlink r:id="rId122" ref="F124"/>
-    <hyperlink r:id="rId123" ref="F125"/>
-    <hyperlink r:id="rId124" ref="F126"/>
-    <hyperlink r:id="rId125" ref="F127"/>
-    <hyperlink r:id="rId126" ref="F128"/>
-    <hyperlink r:id="rId127" ref="F129"/>
-    <hyperlink r:id="rId128" ref="F130"/>
-    <hyperlink r:id="rId129" ref="F131"/>
-    <hyperlink r:id="rId130" ref="F132"/>
-    <hyperlink r:id="rId131" ref="F133"/>
-    <hyperlink r:id="rId132" ref="F134"/>
-    <hyperlink r:id="rId133" ref="F135"/>
-    <hyperlink r:id="rId134" ref="F136"/>
-    <hyperlink r:id="rId135" ref="F137"/>
-    <hyperlink r:id="rId136" ref="F138"/>
-    <hyperlink r:id="rId137" ref="F139"/>
-    <hyperlink r:id="rId138" ref="F140"/>
-    <hyperlink r:id="rId139" ref="F141"/>
-    <hyperlink r:id="rId140" ref="F142"/>
-    <hyperlink r:id="rId141" ref="F143"/>
-    <hyperlink r:id="rId142" ref="F144"/>
-    <hyperlink r:id="rId143" ref="F145"/>
-    <hyperlink r:id="rId144" ref="F146"/>
-    <hyperlink r:id="rId145" ref="F147"/>
-    <hyperlink r:id="rId146" ref="F148"/>
-    <hyperlink r:id="rId147" ref="F149"/>
-    <hyperlink r:id="rId148" ref="F150"/>
-    <hyperlink r:id="rId149" ref="F151"/>
-    <hyperlink r:id="rId150" ref="F152"/>
-    <hyperlink r:id="rId151" ref="F153"/>
-    <hyperlink r:id="rId152" ref="F154"/>
-    <hyperlink r:id="rId153" ref="F155"/>
-    <hyperlink r:id="rId154" ref="F156"/>
-    <hyperlink r:id="rId155" ref="F157"/>
-    <hyperlink r:id="rId156" ref="F158"/>
-    <hyperlink r:id="rId157" ref="F159"/>
-    <hyperlink r:id="rId158" ref="F160"/>
-    <hyperlink r:id="rId159" ref="F161"/>
-    <hyperlink r:id="rId160" ref="F162"/>
-    <hyperlink r:id="rId161" ref="F163"/>
-    <hyperlink r:id="rId162" ref="F164"/>
-    <hyperlink r:id="rId163" ref="F165"/>
-    <hyperlink r:id="rId164" ref="F166"/>
-    <hyperlink r:id="rId165" ref="F167"/>
-    <hyperlink r:id="rId166" ref="F168"/>
-    <hyperlink r:id="rId167" ref="F169"/>
-    <hyperlink r:id="rId168" ref="F170"/>
-    <hyperlink r:id="rId169" ref="F171"/>
-    <hyperlink r:id="rId170" ref="F172"/>
-    <hyperlink r:id="rId171" ref="F173"/>
-    <hyperlink r:id="rId172" ref="F174"/>
-    <hyperlink r:id="rId173" ref="F175"/>
-    <hyperlink r:id="rId174" ref="F176"/>
-    <hyperlink r:id="rId175" ref="F177"/>
-    <hyperlink r:id="rId176" ref="F178"/>
-    <hyperlink r:id="rId177" ref="F179"/>
-    <hyperlink r:id="rId178" ref="F180"/>
-    <hyperlink r:id="rId179" ref="F181"/>
-    <hyperlink r:id="rId180" ref="F182"/>
-    <hyperlink r:id="rId181" ref="F183"/>
-    <hyperlink r:id="rId182" ref="F184"/>
-    <hyperlink r:id="rId183" ref="F185"/>
-    <hyperlink r:id="rId184" ref="F186"/>
-    <hyperlink r:id="rId185" ref="F187"/>
-    <hyperlink r:id="rId186" ref="F188"/>
-    <hyperlink r:id="rId187" ref="F189"/>
-    <hyperlink r:id="rId188" ref="F190"/>
-    <hyperlink r:id="rId189" ref="F191"/>
-    <hyperlink r:id="rId190" ref="F192"/>
-    <hyperlink r:id="rId191" ref="F193"/>
-    <hyperlink r:id="rId192" ref="F194"/>
-    <hyperlink r:id="rId193" ref="F195"/>
-    <hyperlink r:id="rId194" ref="F196"/>
-    <hyperlink r:id="rId195" ref="F197"/>
-    <hyperlink r:id="rId196" ref="F198"/>
-    <hyperlink r:id="rId197" ref="F199"/>
-    <hyperlink r:id="rId198" ref="F200"/>
-    <hyperlink r:id="rId199" ref="F201"/>
-    <hyperlink r:id="rId200" ref="F202"/>
-    <hyperlink r:id="rId201" ref="F203"/>
-    <hyperlink r:id="rId202" ref="F204"/>
-    <hyperlink r:id="rId203" ref="F205"/>
-    <hyperlink r:id="rId204" ref="F206"/>
-    <hyperlink r:id="rId205" ref="F207"/>
-    <hyperlink r:id="rId206" ref="F208"/>
-    <hyperlink r:id="rId207" ref="F209"/>
-    <hyperlink r:id="rId208" ref="F210"/>
-    <hyperlink r:id="rId209" ref="F211"/>
-    <hyperlink r:id="rId210" ref="F212"/>
-    <hyperlink r:id="rId211" ref="F213"/>
-    <hyperlink r:id="rId212" ref="F214"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F11" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F14" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId14"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F19" r:id="rId17"/>
+    <hyperlink ref="F20" r:id="rId18"/>
+    <hyperlink ref="F21" r:id="rId19"/>
+    <hyperlink ref="F22" r:id="rId20"/>
+    <hyperlink ref="F23" r:id="rId21"/>
+    <hyperlink ref="F24" r:id="rId22"/>
+    <hyperlink ref="F25" r:id="rId23"/>
+    <hyperlink ref="F26" r:id="rId24"/>
+    <hyperlink ref="F27" r:id="rId25"/>
+    <hyperlink ref="F28" r:id="rId26"/>
+    <hyperlink ref="F29" r:id="rId27"/>
+    <hyperlink ref="F30" r:id="rId28"/>
+    <hyperlink ref="F31" r:id="rId29"/>
+    <hyperlink ref="F32" r:id="rId30"/>
+    <hyperlink ref="F33" r:id="rId31"/>
+    <hyperlink ref="F34" r:id="rId32"/>
+    <hyperlink ref="F35" r:id="rId33"/>
+    <hyperlink ref="F36" r:id="rId34"/>
+    <hyperlink ref="F37" r:id="rId35"/>
+    <hyperlink ref="F38" r:id="rId36"/>
+    <hyperlink ref="F39" r:id="rId37"/>
+    <hyperlink ref="F40" r:id="rId38"/>
+    <hyperlink ref="F41" r:id="rId39"/>
+    <hyperlink ref="F42" r:id="rId40"/>
+    <hyperlink ref="F43" r:id="rId41"/>
+    <hyperlink ref="F44" r:id="rId42"/>
+    <hyperlink ref="F45" r:id="rId43"/>
+    <hyperlink ref="F46" r:id="rId44"/>
+    <hyperlink ref="F47" r:id="rId45"/>
+    <hyperlink ref="F48" r:id="rId46"/>
+    <hyperlink ref="F49" r:id="rId47"/>
+    <hyperlink ref="F50" r:id="rId48"/>
+    <hyperlink ref="F51" r:id="rId49"/>
+    <hyperlink ref="F52" r:id="rId50"/>
+    <hyperlink ref="F53" r:id="rId51"/>
+    <hyperlink ref="F54" r:id="rId52"/>
+    <hyperlink ref="F55" r:id="rId53"/>
+    <hyperlink ref="F56" r:id="rId54"/>
+    <hyperlink ref="F57" r:id="rId55"/>
+    <hyperlink ref="F58" r:id="rId56"/>
+    <hyperlink ref="F59" r:id="rId57"/>
+    <hyperlink ref="F60" r:id="rId58"/>
+    <hyperlink ref="F61" r:id="rId59"/>
+    <hyperlink ref="F62" r:id="rId60"/>
+    <hyperlink ref="F63" r:id="rId61"/>
+    <hyperlink ref="F64" r:id="rId62"/>
+    <hyperlink ref="F65" r:id="rId63"/>
+    <hyperlink ref="F66" r:id="rId64"/>
+    <hyperlink ref="F67" r:id="rId65"/>
+    <hyperlink ref="F68" r:id="rId66"/>
+    <hyperlink ref="F69" r:id="rId67"/>
+    <hyperlink ref="F70" r:id="rId68"/>
+    <hyperlink ref="F71" r:id="rId69"/>
+    <hyperlink ref="F72" r:id="rId70"/>
+    <hyperlink ref="F73" r:id="rId71"/>
+    <hyperlink ref="F74" r:id="rId72"/>
+    <hyperlink ref="F75" r:id="rId73"/>
+    <hyperlink ref="F76" r:id="rId74"/>
+    <hyperlink ref="F77" r:id="rId75"/>
+    <hyperlink ref="F78" r:id="rId76"/>
+    <hyperlink ref="F79" r:id="rId77"/>
+    <hyperlink ref="F80" r:id="rId78"/>
+    <hyperlink ref="F81" r:id="rId79"/>
+    <hyperlink ref="F82" r:id="rId80"/>
+    <hyperlink ref="F83" r:id="rId81"/>
+    <hyperlink ref="F84" r:id="rId82"/>
+    <hyperlink ref="F85" r:id="rId83"/>
+    <hyperlink ref="F86" r:id="rId84"/>
+    <hyperlink ref="F87" r:id="rId85"/>
+    <hyperlink ref="F88" r:id="rId86"/>
+    <hyperlink ref="F89" r:id="rId87"/>
+    <hyperlink ref="F90" r:id="rId88"/>
+    <hyperlink ref="F91" r:id="rId89"/>
+    <hyperlink ref="F92" r:id="rId90"/>
+    <hyperlink ref="F93" r:id="rId91"/>
+    <hyperlink ref="F94" r:id="rId92"/>
+    <hyperlink ref="F95" r:id="rId93"/>
+    <hyperlink ref="F96" r:id="rId94"/>
+    <hyperlink ref="F97" r:id="rId95"/>
+    <hyperlink ref="F98" r:id="rId96"/>
+    <hyperlink ref="F99" r:id="rId97"/>
+    <hyperlink ref="F100" r:id="rId98"/>
+    <hyperlink ref="F101" r:id="rId99"/>
+    <hyperlink ref="F102" r:id="rId100"/>
+    <hyperlink ref="F103" r:id="rId101"/>
+    <hyperlink ref="F104" r:id="rId102"/>
+    <hyperlink ref="F105" r:id="rId103"/>
+    <hyperlink ref="F106" r:id="rId104"/>
+    <hyperlink ref="F107" r:id="rId105"/>
+    <hyperlink ref="F108" r:id="rId106"/>
+    <hyperlink ref="F109" r:id="rId107"/>
+    <hyperlink ref="F110" r:id="rId108"/>
+    <hyperlink ref="F111" r:id="rId109"/>
+    <hyperlink ref="F112" r:id="rId110"/>
+    <hyperlink ref="F113" r:id="rId111"/>
+    <hyperlink ref="F114" r:id="rId112"/>
+    <hyperlink ref="F115" r:id="rId113"/>
+    <hyperlink ref="F116" r:id="rId114"/>
+    <hyperlink ref="F117" r:id="rId115"/>
+    <hyperlink ref="F118" r:id="rId116"/>
+    <hyperlink ref="F119" r:id="rId117"/>
+    <hyperlink ref="F120" r:id="rId118"/>
+    <hyperlink ref="F121" r:id="rId119"/>
+    <hyperlink ref="F122" r:id="rId120"/>
+    <hyperlink ref="F123" r:id="rId121"/>
+    <hyperlink ref="F124" r:id="rId122"/>
+    <hyperlink ref="F125" r:id="rId123"/>
+    <hyperlink ref="F126" r:id="rId124"/>
+    <hyperlink ref="F127" r:id="rId125"/>
+    <hyperlink ref="F128" r:id="rId126"/>
+    <hyperlink ref="F129" r:id="rId127"/>
+    <hyperlink ref="F130" r:id="rId128"/>
+    <hyperlink ref="F131" r:id="rId129"/>
+    <hyperlink ref="F132" r:id="rId130"/>
+    <hyperlink ref="F133" r:id="rId131"/>
+    <hyperlink ref="F134" r:id="rId132"/>
+    <hyperlink ref="F135" r:id="rId133"/>
+    <hyperlink ref="F136" r:id="rId134"/>
+    <hyperlink ref="F137" r:id="rId135"/>
+    <hyperlink ref="F138" r:id="rId136"/>
+    <hyperlink ref="F139" r:id="rId137"/>
+    <hyperlink ref="F140" r:id="rId138"/>
+    <hyperlink ref="F141" r:id="rId139"/>
+    <hyperlink ref="F142" r:id="rId140"/>
+    <hyperlink ref="F143" r:id="rId141"/>
+    <hyperlink ref="F144" r:id="rId142"/>
+    <hyperlink ref="F145" r:id="rId143"/>
+    <hyperlink ref="F146" r:id="rId144"/>
+    <hyperlink ref="F147" r:id="rId145"/>
+    <hyperlink ref="F148" r:id="rId146"/>
+    <hyperlink ref="F149" r:id="rId147"/>
+    <hyperlink ref="F150" r:id="rId148"/>
+    <hyperlink ref="F151" r:id="rId149"/>
+    <hyperlink ref="F152" r:id="rId150"/>
+    <hyperlink ref="F153" r:id="rId151"/>
+    <hyperlink ref="F154" r:id="rId152"/>
+    <hyperlink ref="F155" r:id="rId153"/>
+    <hyperlink ref="F156" r:id="rId154"/>
+    <hyperlink ref="F157" r:id="rId155"/>
+    <hyperlink ref="F158" r:id="rId156"/>
+    <hyperlink ref="F159" r:id="rId157"/>
+    <hyperlink ref="F160" r:id="rId158"/>
+    <hyperlink ref="F161" r:id="rId159"/>
+    <hyperlink ref="F162" r:id="rId160"/>
+    <hyperlink ref="F163" r:id="rId161"/>
+    <hyperlink ref="F164" r:id="rId162"/>
+    <hyperlink ref="F165" r:id="rId163"/>
+    <hyperlink ref="F166" r:id="rId164"/>
+    <hyperlink ref="F167" r:id="rId165"/>
+    <hyperlink ref="F168" r:id="rId166"/>
+    <hyperlink ref="F169" r:id="rId167"/>
+    <hyperlink ref="F170" r:id="rId168"/>
+    <hyperlink ref="F171" r:id="rId169"/>
+    <hyperlink ref="F172" r:id="rId170"/>
+    <hyperlink ref="F173" r:id="rId171"/>
+    <hyperlink ref="F174" r:id="rId172"/>
+    <hyperlink ref="F175" r:id="rId173"/>
+    <hyperlink ref="F176" r:id="rId174"/>
+    <hyperlink ref="F177" r:id="rId175"/>
+    <hyperlink ref="F178" r:id="rId176"/>
+    <hyperlink ref="F179" r:id="rId177"/>
+    <hyperlink ref="F180" r:id="rId178"/>
+    <hyperlink ref="F181" r:id="rId179"/>
+    <hyperlink ref="F182" r:id="rId180"/>
+    <hyperlink ref="F183" r:id="rId181"/>
+    <hyperlink ref="F184" r:id="rId182"/>
+    <hyperlink ref="F185" r:id="rId183"/>
+    <hyperlink ref="F186" r:id="rId184"/>
+    <hyperlink ref="F187" r:id="rId185"/>
+    <hyperlink ref="F188" r:id="rId186"/>
+    <hyperlink ref="F189" r:id="rId187"/>
+    <hyperlink ref="F190" r:id="rId188"/>
+    <hyperlink ref="F191" r:id="rId189"/>
+    <hyperlink ref="F192" r:id="rId190"/>
+    <hyperlink ref="F193" r:id="rId191"/>
+    <hyperlink ref="F194" r:id="rId192"/>
+    <hyperlink ref="F195" r:id="rId193"/>
+    <hyperlink ref="F196" r:id="rId194"/>
+    <hyperlink ref="F197" r:id="rId195"/>
+    <hyperlink ref="F198" r:id="rId196"/>
+    <hyperlink ref="F199" r:id="rId197"/>
+    <hyperlink ref="F200" r:id="rId198"/>
+    <hyperlink ref="F201" r:id="rId199"/>
+    <hyperlink ref="F202" r:id="rId200"/>
+    <hyperlink ref="F203" r:id="rId201"/>
+    <hyperlink ref="F204" r:id="rId202"/>
+    <hyperlink ref="F205" r:id="rId203"/>
+    <hyperlink ref="F206" r:id="rId204"/>
+    <hyperlink ref="F207" r:id="rId205"/>
+    <hyperlink ref="F208" r:id="rId206"/>
+    <hyperlink ref="F209" r:id="rId207"/>
+    <hyperlink ref="F210" r:id="rId208"/>
+    <hyperlink ref="F211" r:id="rId209"/>
+    <hyperlink ref="F212" r:id="rId210"/>
+    <hyperlink ref="F213" r:id="rId211"/>
+    <hyperlink ref="F214" r:id="rId212"/>
   </hyperlinks>
-  <drawing r:id="rId213"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId213"/>
 </worksheet>
 </file>